--- a/public/templates/Template_Upload_DC.xlsx
+++ b/public/templates/Template_Upload_DC.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\metronic\metronic-react\public\templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7514116-5BAF-46CE-A9FF-306F96A66160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="dc" sheetId="1" r:id="rId4"/>
+    <sheet name="dc" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>No</t>
   </si>
@@ -29,35 +38,42 @@
   </si>
   <si>
     <t>Company Code</t>
+  </si>
+  <si>
+    <t>DC001</t>
+  </si>
+  <si>
+    <t>Z001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5">
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF212121"/>
       <name val="Helvetica Neue"/>
     </font>
@@ -67,45 +83,49 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -295,134 +315,146 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="3.44"/>
-    <col customWidth="1" min="2" max="2" width="10.11"/>
-    <col customWidth="1" min="3" max="3" width="22.0"/>
-    <col customWidth="1" min="4" max="5" width="10.67"/>
-    <col customWidth="1" min="6" max="6" width="11.67"/>
-    <col customWidth="1" min="7" max="26" width="10.67"/>
+    <col min="1" max="1" width="3.5" customWidth="1"/>
+    <col min="2" max="2" width="10.125" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="5" width="10.625" customWidth="1"/>
+    <col min="6" max="6" width="11.625" customWidth="1"/>
+    <col min="7" max="26" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-    </row>
-    <row r="18"/>
-    <row r="19"/>
-    <row r="20"/>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="1:3"/>
+    <row r="19" spans="1:3"/>
+    <row r="20" spans="1:3"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>